--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H2">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I2">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J2">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>4.94226281808</v>
+        <v>1.272396404412</v>
       </c>
       <c r="R2">
-        <v>44.48036536272</v>
+        <v>11.451567639708</v>
       </c>
       <c r="S2">
-        <v>0.0004650389756901299</v>
+        <v>0.0001129652404678051</v>
       </c>
       <c r="T2">
-        <v>0.0005122066342160278</v>
+        <v>0.0001239979575503302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H3">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I3">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J3">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>232.67334461886</v>
+        <v>81.330320460564</v>
       </c>
       <c r="R3">
-        <v>2094.06010156974</v>
+        <v>731.972884145076</v>
       </c>
       <c r="S3">
-        <v>0.02189324563155997</v>
+        <v>0.007220626509391143</v>
       </c>
       <c r="T3">
-        <v>0.02411381893391714</v>
+        <v>0.007925826879936959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H4">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I4">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J4">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>146.93946751566</v>
+        <v>59.99957660440798</v>
       </c>
       <c r="R4">
-        <v>1322.45520764094</v>
+        <v>539.996189439672</v>
       </c>
       <c r="S4">
-        <v>0.01382617274256611</v>
+        <v>0.005326851424274207</v>
       </c>
       <c r="T4">
-        <v>0.01522852443507453</v>
+        <v>0.005847096806493462</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H5">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I5">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J5">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>51.91691387724</v>
+        <v>12.787115871726</v>
       </c>
       <c r="R5">
-        <v>311.50148326344</v>
+        <v>76.722695230356</v>
       </c>
       <c r="S5">
-        <v>0.004885087932220437</v>
+        <v>0.001135259117622819</v>
       </c>
       <c r="T5">
-        <v>0.003587046216787419</v>
+        <v>0.0008307559109490783</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H6">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I6">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J6">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>175.02105740094</v>
+        <v>75.09523375065599</v>
       </c>
       <c r="R6">
-        <v>1575.18951660846</v>
+        <v>675.8571037559039</v>
       </c>
       <c r="S6">
-        <v>0.01646849150963527</v>
+        <v>0.006667066261122549</v>
       </c>
       <c r="T6">
-        <v>0.01813884652194443</v>
+        <v>0.007318203332356216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H7">
         <v>37.45258</v>
       </c>
       <c r="I7">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J7">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>49.27104956243556</v>
+        <v>36.28963161562443</v>
       </c>
       <c r="R7">
-        <v>443.43944606192</v>
+        <v>326.6066845406199</v>
       </c>
       <c r="S7">
-        <v>0.004636127066304827</v>
+        <v>0.003221847332900569</v>
       </c>
       <c r="T7">
-        <v>0.005106357025033812</v>
+        <v>0.00353650810784143</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H8">
         <v>37.45258</v>
       </c>
       <c r="I8">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J8">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
-        <v>2319.597382121238</v>
+        <v>2319.597382121237</v>
       </c>
       <c r="R8">
         <v>20876.37643909114</v>
       </c>
       <c r="S8">
-        <v>0.2182609930514032</v>
+        <v>0.2059372968606493</v>
       </c>
       <c r="T8">
-        <v>0.2403986213534055</v>
+        <v>0.2260501025661447</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H9">
         <v>37.45258</v>
       </c>
       <c r="I9">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J9">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>1464.888058999371</v>
+        <v>1711.229711525008</v>
       </c>
       <c r="R9">
-        <v>13183.99253099434</v>
+        <v>15401.06740372508</v>
       </c>
       <c r="S9">
-        <v>0.1378376803365586</v>
+        <v>0.151925512511494</v>
       </c>
       <c r="T9">
-        <v>0.1518181873004497</v>
+        <v>0.1667632731378227</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H10">
         <v>37.45258</v>
       </c>
       <c r="I10">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J10">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>517.5768531403068</v>
+        <v>364.6974502617232</v>
       </c>
       <c r="R10">
-        <v>3105.46111884184</v>
+        <v>2188.18470157034</v>
       </c>
       <c r="S10">
-        <v>0.04870105425085327</v>
+        <v>0.03237838068699152</v>
       </c>
       <c r="T10">
-        <v>0.03576044788300836</v>
+        <v>0.02369373716108265</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H11">
         <v>37.45258</v>
       </c>
       <c r="I11">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J11">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>1744.842698798785</v>
+        <v>2141.768366722062</v>
       </c>
       <c r="R11">
-        <v>15703.58428918906</v>
+        <v>19275.91530049856</v>
       </c>
       <c r="S11">
-        <v>0.1641798284019655</v>
+        <v>0.1901493730524205</v>
       </c>
       <c r="T11">
-        <v>0.1808321489336202</v>
+        <v>0.2087202558090926</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H12">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I12">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J12">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>5.547397235812443</v>
+        <v>5.223028274374776</v>
       </c>
       <c r="R12">
-        <v>49.92657512231199</v>
+        <v>47.00725446937299</v>
       </c>
       <c r="S12">
-        <v>0.0005219787015071522</v>
+        <v>0.0004637081989064187</v>
       </c>
       <c r="T12">
-        <v>0.0005749216040110626</v>
+        <v>0.0005089961241672857</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H13">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I13">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J13">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>261.1620458677532</v>
+        <v>333.85080455787</v>
       </c>
       <c r="R13">
-        <v>2350.458412809779</v>
+        <v>3004.657241020831</v>
       </c>
       <c r="S13">
-        <v>0.02457387127515417</v>
+        <v>0.02963976971836712</v>
       </c>
       <c r="T13">
-        <v>0.0270663332612613</v>
+        <v>0.03253452913586365</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H14">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I14">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J14">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>164.9308476566999</v>
+        <v>246.2907659662535</v>
       </c>
       <c r="R14">
-        <v>1484.377628910299</v>
+        <v>2216.616893696282</v>
       </c>
       <c r="S14">
-        <v>0.01551905984711941</v>
+        <v>0.0218660595911028</v>
       </c>
       <c r="T14">
-        <v>0.01709311654726072</v>
+        <v>0.02400160188870917</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H15">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I15">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J15">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>58.27366029198733</v>
+        <v>52.48951310625183</v>
       </c>
       <c r="R15">
-        <v>349.6419617519239</v>
+        <v>314.937078637511</v>
       </c>
       <c r="S15">
-        <v>0.005483221813450253</v>
+        <v>0.004660096845232663</v>
       </c>
       <c r="T15">
-        <v>0.004026246883298772</v>
+        <v>0.00341014922467985</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H16">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I16">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J16">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>196.4507687618545</v>
+        <v>308.2565525888248</v>
       </c>
       <c r="R16">
-        <v>1768.056918856691</v>
+        <v>2774.308973299424</v>
       </c>
       <c r="S16">
-        <v>0.01848490613334934</v>
+        <v>0.02736747405779198</v>
       </c>
       <c r="T16">
-        <v>0.02035978068356783</v>
+        <v>0.03004031038596336</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H17">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I17">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J17">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>16.91566863511467</v>
+        <v>13.39564321267066</v>
       </c>
       <c r="R17">
-        <v>101.494011810688</v>
+        <v>80.37385927602399</v>
       </c>
       <c r="S17">
-        <v>0.001591668736516806</v>
+        <v>0.00118928507774239</v>
       </c>
       <c r="T17">
-        <v>0.001168738290675212</v>
+        <v>0.0008702908373965438</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H18">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I18">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J18">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>796.3609671663494</v>
+        <v>856.2362731332546</v>
       </c>
       <c r="R18">
-        <v>4778.165802998096</v>
+        <v>5137.417638799528</v>
       </c>
       <c r="S18">
-        <v>0.07493306246196589</v>
+        <v>0.07601792661183596</v>
       </c>
       <c r="T18">
-        <v>0.05502221494185402</v>
+        <v>0.05562813008109909</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H19">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I19">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J19">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>502.9233437004294</v>
+        <v>631.6686516222692</v>
       </c>
       <c r="R19">
-        <v>3017.540062202576</v>
+        <v>3790.011909733616</v>
       </c>
       <c r="S19">
-        <v>0.04732224189889633</v>
+        <v>0.05608048001319147</v>
       </c>
       <c r="T19">
-        <v>0.03474800681759261</v>
+        <v>0.04103837576515228</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H20">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I20">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J20">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>177.693769844144</v>
+        <v>134.621287314842</v>
       </c>
       <c r="R20">
-        <v>710.7750793765761</v>
+        <v>538.485149259368</v>
       </c>
       <c r="S20">
-        <v>0.01671997863256912</v>
+        <v>0.01195187760738314</v>
       </c>
       <c r="T20">
-        <v>0.008184818360265449</v>
+        <v>0.005830735212864613</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H21">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I21">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J21">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>599.0369836931974</v>
+        <v>790.5939963424853</v>
       </c>
       <c r="R21">
-        <v>3594.221902159185</v>
+        <v>4743.563978054912</v>
       </c>
       <c r="S21">
-        <v>0.05636599176354855</v>
+        <v>0.07019010789369816</v>
       </c>
       <c r="T21">
-        <v>0.0413886956214945</v>
+        <v>0.05136346946496546</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H22">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I22">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J22">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>9.219197851969778</v>
+        <v>6.000349021320221</v>
       </c>
       <c r="R22">
-        <v>82.972780667728</v>
+        <v>54.00314119188199</v>
       </c>
       <c r="S22">
-        <v>0.0008674743702582417</v>
+        <v>0.0005327198880269054</v>
       </c>
       <c r="T22">
-        <v>0.0009554599736489847</v>
+        <v>0.0005847478196676154</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H23">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I23">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J23">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>434.0241864665028</v>
+        <v>383.5363783542949</v>
       </c>
       <c r="R23">
-        <v>3906.217678198526</v>
+        <v>3451.827405188654</v>
       </c>
       <c r="S23">
-        <v>0.04083922092543345</v>
+        <v>0.03405092867184416</v>
       </c>
       <c r="T23">
-        <v>0.04498143378880879</v>
+        <v>0.0373765026349321</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H24">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I24">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J24">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>274.0979331034896</v>
+        <v>282.9451572713764</v>
       </c>
       <c r="R24">
-        <v>2466.881397931406</v>
+        <v>2546.506415442388</v>
       </c>
       <c r="S24">
-        <v>0.02579106509328603</v>
+        <v>0.02512029083038214</v>
       </c>
       <c r="T24">
-        <v>0.02840698379028126</v>
+        <v>0.02757365666764907</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H25">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I25">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J25">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>96.84476898860933</v>
+        <v>60.30130071129567</v>
       </c>
       <c r="R25">
-        <v>581.0686139316559</v>
+        <v>361.807804267774</v>
       </c>
       <c r="S25">
-        <v>0.009112544967591632</v>
+        <v>0.005353638938111335</v>
       </c>
       <c r="T25">
-        <v>0.006691204007958848</v>
+        <v>0.003917667010009259</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H26">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I26">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J26">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>326.4807671776282</v>
+        <v>354.1330443713351</v>
       </c>
       <c r="R26">
-        <v>2938.326904598654</v>
+        <v>3187.197399342016</v>
       </c>
       <c r="S26">
-        <v>0.03071999348059648</v>
+        <v>0.03144045705904894</v>
       </c>
       <c r="T26">
-        <v>0.03383584019056363</v>
+        <v>0.03451108007761035</v>
       </c>
     </row>
   </sheetData>
